--- a/IBK/excel/BL_result_0725_SAMPLE_1.1.2.xlsx
+++ b/IBK/excel/BL_result_0725_SAMPLE_1.1.2.xlsx
@@ -5073,7 +5073,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5086,8 +5086,14 @@
         <bgColor rgb="FFADFF2F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5095,11 +5101,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5107,11 +5122,17 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5149,86 +5170,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5529,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5539,7 +5480,8 @@
     <col min="2" max="2" width="40.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -5631,28 +5573,28 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>403</v>
       </c>
       <c r="I4" s="2">
@@ -5727,28 +5669,28 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>413</v>
       </c>
       <c r="I7" s="2">
@@ -5761,28 +5703,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="7" t="s">
         <v>413</v>
       </c>
       <c r="I8" s="2">
@@ -5888,28 +5830,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="7" t="s">
         <v>435</v>
       </c>
       <c r="I12" s="2">
@@ -5953,28 +5895,28 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="7" t="s">
         <v>447</v>
       </c>
       <c r="I14" s="2">
@@ -5987,28 +5929,28 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="7" t="s">
         <v>454</v>
       </c>
       <c r="I15" s="2">
@@ -6021,28 +5963,28 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="7" t="s">
         <v>459</v>
       </c>
       <c r="I16" s="2">
@@ -6083,28 +6025,28 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="7" t="s">
         <v>464</v>
       </c>
       <c r="I18" s="2">
@@ -6117,28 +6059,28 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="7" t="s">
         <v>464</v>
       </c>
       <c r="I19" s="2">
@@ -6182,28 +6124,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <v>43505</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="7" t="s">
         <v>473</v>
       </c>
       <c r="I21" s="2">
@@ -6216,28 +6158,28 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="8">
         <v>43505</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="7" t="s">
         <v>474</v>
       </c>
       <c r="I22" s="2">
@@ -6617,28 +6559,28 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="7" t="s">
         <v>523</v>
       </c>
       <c r="I36" s="2">
@@ -6651,28 +6593,28 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="7" t="s">
         <v>527</v>
       </c>
       <c r="I37" s="2">
@@ -6685,28 +6627,28 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="7" t="s">
         <v>523</v>
       </c>
       <c r="I38" s="2">
@@ -6831,28 +6773,28 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="7" t="s">
         <v>550</v>
       </c>
       <c r="I43" s="2">
@@ -6956,28 +6898,28 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="7" t="s">
         <v>562</v>
       </c>
       <c r="I48" s="2">
@@ -7118,28 +7060,28 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="7" t="s">
         <v>573</v>
       </c>
       <c r="I54" s="2">
@@ -7230,28 +7172,28 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="7" t="s">
         <v>590</v>
       </c>
       <c r="I58" s="2">
@@ -7264,28 +7206,28 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="7" t="s">
         <v>593</v>
       </c>
       <c r="I59" s="2">
@@ -7298,28 +7240,28 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="7" t="s">
         <v>593</v>
       </c>
       <c r="I60" s="2">
@@ -7332,28 +7274,28 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="7" t="s">
         <v>597</v>
       </c>
       <c r="I61" s="2">
@@ -7366,28 +7308,28 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="7" t="s">
         <v>602</v>
       </c>
       <c r="I62" s="2">
@@ -7450,28 +7392,28 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="7" t="s">
         <v>616</v>
       </c>
       <c r="I65" s="2">
@@ -7652,28 +7594,28 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="7" t="s">
         <v>639</v>
       </c>
       <c r="I72" s="2">
@@ -7686,28 +7628,28 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="7" t="s">
         <v>646</v>
       </c>
       <c r="I73" s="2">
@@ -7750,36 +7692,36 @@
         <v>85.714285714285722</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
@@ -7832,28 +7774,28 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="7" t="s">
         <v>663</v>
       </c>
       <c r="I78" s="2">
@@ -7866,28 +7808,28 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="7" t="s">
         <v>666</v>
       </c>
       <c r="I79" s="2">
@@ -7900,28 +7842,28 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="7" t="s">
         <v>673</v>
       </c>
       <c r="I80" s="2">
@@ -8130,28 +8072,28 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="7" t="s">
         <v>701</v>
       </c>
       <c r="I88" s="2">
@@ -8195,28 +8137,28 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="7" t="s">
         <v>709</v>
       </c>
       <c r="I90" s="2">
@@ -8229,28 +8171,28 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="7" t="s">
         <v>709</v>
       </c>
       <c r="I91" s="2">
@@ -8412,28 +8354,28 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="7" t="s">
         <v>697</v>
       </c>
       <c r="I97" s="2">
@@ -8477,28 +8419,28 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="7" t="s">
         <v>745</v>
       </c>
       <c r="I99" s="2">
@@ -8601,28 +8543,28 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="7" t="s">
         <v>760</v>
       </c>
       <c r="I103" s="2">
@@ -8635,28 +8577,28 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" s="7" t="s">
         <v>760</v>
       </c>
       <c r="I104" s="2">
@@ -8669,28 +8611,28 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="7" t="s">
         <v>769</v>
       </c>
       <c r="I105" s="2">
@@ -8703,28 +8645,28 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="7" t="s">
         <v>775</v>
       </c>
       <c r="I106" s="2">
@@ -8768,28 +8710,28 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="7" t="s">
         <v>775</v>
       </c>
       <c r="I108" s="2">
@@ -8849,28 +8791,28 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="7" t="s">
         <v>791</v>
       </c>
       <c r="I111" s="2">
@@ -9337,28 +9279,28 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H128" s="7" t="s">
         <v>847</v>
       </c>
       <c r="I128" s="2">
@@ -9511,28 +9453,28 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H134" s="7" t="s">
         <v>864</v>
       </c>
       <c r="I134" s="2">
@@ -9887,28 +9829,28 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" s="7" t="s">
         <v>917</v>
       </c>
       <c r="I147" s="2">
@@ -9946,28 +9888,28 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F149" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H149" s="7" t="s">
         <v>924</v>
       </c>
       <c r="I149" s="2">
@@ -9980,28 +9922,28 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="G150" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="H150" s="7" t="s">
         <v>929</v>
       </c>
       <c r="I150" s="2">
@@ -10073,28 +10015,28 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="H153" s="7" t="s">
         <v>938</v>
       </c>
       <c r="I153" s="2">
@@ -10169,28 +10111,28 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="H156" s="7" t="s">
         <v>946</v>
       </c>
       <c r="I156" s="2">
@@ -10437,28 +10379,28 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="7">
         <v>1</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="H166" s="2" t="s">
+      <c r="H166" s="7" t="s">
         <v>975</v>
       </c>
       <c r="I166" s="2">
@@ -10499,28 +10441,28 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F168" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="H168" s="2" t="s">
+      <c r="H168" s="7" t="s">
         <v>983</v>
       </c>
       <c r="I168" s="2">
@@ -10564,28 +10506,28 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="F170" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G170" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="H170" s="2" t="s">
+      <c r="H170" s="7" t="s">
         <v>992</v>
       </c>
       <c r="I170" s="2">
@@ -10598,28 +10540,28 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F171" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="H171" s="2" t="s">
+      <c r="H171" s="7" t="s">
         <v>998</v>
       </c>
       <c r="I171" s="2">
@@ -10632,28 +10574,28 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F172" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="H172" s="2" t="s">
+      <c r="H172" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="I172" s="2">
@@ -10666,28 +10608,28 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F173" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G173" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="H173" s="2" t="s">
+      <c r="H173" s="7" t="s">
         <v>1007</v>
       </c>
       <c r="I173" s="2">
@@ -10700,28 +10642,28 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F174" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G174" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="H174" s="2" t="s">
+      <c r="H174" s="7" t="s">
         <v>1011</v>
       </c>
       <c r="I174" s="2">
@@ -10734,28 +10676,28 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F175" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G175" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="H175" s="2" t="s">
+      <c r="H175" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="I175" s="2">
@@ -10799,28 +10741,28 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="H177" s="2" t="s">
+      <c r="H177" s="7" t="s">
         <v>1021</v>
       </c>
       <c r="I177" s="2">
@@ -10833,28 +10775,28 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F178" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="H178" s="2" t="s">
+      <c r="H178" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="I178" s="2">
@@ -10985,28 +10927,28 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="F183" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="7">
         <v>2019.0207</v>
       </c>
-      <c r="H183" s="2" t="s">
+      <c r="H183" s="7" t="s">
         <v>1050</v>
       </c>
       <c r="I183" s="2">
@@ -11112,28 +11054,28 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F187" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="G187" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="H187" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="I187" s="2">
@@ -11199,28 +11141,28 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F190" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="G190" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="H190" s="7" t="s">
         <v>1075</v>
       </c>
       <c r="I190" s="2">
@@ -11373,28 +11315,28 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="F196" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="G196" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H196" s="2" t="s">
+      <c r="H196" s="7" t="s">
         <v>1099</v>
       </c>
       <c r="I196" s="2">
@@ -11407,28 +11349,28 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="F197" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G197" s="2" t="s">
+      <c r="G197" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H197" s="2" t="s">
+      <c r="H197" s="7" t="s">
         <v>464</v>
       </c>
       <c r="I197" s="2">
@@ -11441,28 +11383,28 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="F198" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G198" s="2" t="s">
+      <c r="G198" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H198" s="2" t="s">
+      <c r="H198" s="7" t="s">
         <v>1099</v>
       </c>
       <c r="I198" s="2">
@@ -11475,28 +11417,28 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F199" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="G199" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H199" s="2" t="s">
+      <c r="H199" s="7" t="s">
         <v>464</v>
       </c>
       <c r="I199" s="2">
@@ -11509,28 +11451,28 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F200" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="G200" s="2" t="s">
+      <c r="G200" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="H200" s="2" t="s">
+      <c r="H200" s="7" t="s">
         <v>1106</v>
       </c>
       <c r="I200" s="2">
@@ -11562,28 +11504,28 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="F202" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="G202" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="H202" s="7" t="s">
         <v>1113</v>
       </c>
       <c r="I202" s="2">
@@ -11752,28 +11694,28 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F209" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G209" s="2" t="s">
+      <c r="G209" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="H209" s="2" t="s">
+      <c r="H209" s="7" t="s">
         <v>1136</v>
       </c>
       <c r="I209" s="2">
@@ -11966,28 +11908,28 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="F216" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G216" s="2" t="s">
+      <c r="G216" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="H216" s="2" t="s">
+      <c r="H216" s="7" t="s">
         <v>1158</v>
       </c>
       <c r="I216" s="2">
@@ -12019,28 +11961,28 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="F218" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G218" s="2" t="s">
+      <c r="G218" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="H218" s="2" t="s">
+      <c r="H218" s="7" t="s">
         <v>1158</v>
       </c>
       <c r="I218" s="2">
@@ -12377,28 +12319,28 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="F231" s="2" t="s">
+      <c r="F231" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="G231" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="H231" s="2" t="s">
+      <c r="H231" s="7" t="s">
         <v>1207</v>
       </c>
       <c r="I231" s="2">
@@ -12411,28 +12353,28 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="F232" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G232" s="2" t="s">
+      <c r="G232" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="H232" s="7" t="s">
         <v>1207</v>
       </c>
       <c r="I232" s="2">
@@ -12473,28 +12415,28 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="F234" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="G234" s="2" t="s">
+      <c r="G234" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="H234" s="7" t="s">
         <v>1217</v>
       </c>
       <c r="I234" s="2">
@@ -12507,28 +12449,28 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="F235" s="2" t="s">
+      <c r="F235" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="G235" s="2" t="s">
+      <c r="G235" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="H235" s="2" t="s">
+      <c r="H235" s="7" t="s">
         <v>1217</v>
       </c>
       <c r="I235" s="2">
@@ -12626,28 +12568,28 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="7" t="s">
         <v>1227</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="F240" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G240" s="2" t="s">
+      <c r="G240" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="H240" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="I240" s="2">
@@ -12764,28 +12706,28 @@
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F246" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="G246" s="2" t="s">
+      <c r="G246" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="H246" s="2" t="s">
+      <c r="H246" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="I246" s="2">
@@ -12857,28 +12799,28 @@
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E249" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="F249" s="2" t="s">
+      <c r="F249" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="G249" s="2" t="s">
+      <c r="G249" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H249" s="2" t="s">
+      <c r="H249" s="7" t="s">
         <v>1254</v>
       </c>
       <c r="I249" s="2">
@@ -12891,28 +12833,28 @@
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="E250" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="F250" s="2" t="s">
+      <c r="F250" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="G250" s="2" t="s">
+      <c r="G250" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="H250" s="2" t="s">
+      <c r="H250" s="7" t="s">
         <v>1259</v>
       </c>
       <c r="I250" s="2">
@@ -13124,28 +13066,28 @@
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E258" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F258" s="2" t="s">
+      <c r="F258" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G258" s="2" t="s">
+      <c r="G258" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="H258" s="2" t="s">
+      <c r="H258" s="7" t="s">
         <v>1287</v>
       </c>
       <c r="I258" s="2">
@@ -13158,28 +13100,28 @@
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E259" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F259" s="2" t="s">
+      <c r="F259" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G259" s="2" t="s">
+      <c r="G259" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H259" s="2" t="s">
+      <c r="H259" s="7" t="s">
         <v>1289</v>
       </c>
       <c r="I259" s="2">
@@ -13192,28 +13134,28 @@
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="E260" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F260" s="2" t="s">
+      <c r="F260" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G260" s="2" t="s">
+      <c r="G260" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="H260" s="2" t="s">
+      <c r="H260" s="7" t="s">
         <v>1291</v>
       </c>
       <c r="I260" s="2">
@@ -13226,28 +13168,28 @@
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E261" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F261" s="2" t="s">
+      <c r="F261" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="G261" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="H261" s="2" t="s">
+      <c r="H261" s="7" t="s">
         <v>1293</v>
       </c>
       <c r="I261" s="2">
@@ -13260,28 +13202,28 @@
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="F262" s="2" t="s">
+      <c r="F262" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G262" s="2" t="s">
+      <c r="G262" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="H262" s="2" t="s">
+      <c r="H262" s="7" t="s">
         <v>1299</v>
       </c>
       <c r="I262" s="2">
@@ -13294,28 +13236,28 @@
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="F263" s="2" t="s">
+      <c r="F263" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="G263" s="2" t="s">
+      <c r="G263" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H263" s="2" t="s">
+      <c r="H263" s="7" t="s">
         <v>1303</v>
       </c>
       <c r="I263" s="2">
@@ -13543,28 +13485,28 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E272" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="F272" s="2" t="s">
+      <c r="F272" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G272" s="2" t="s">
+      <c r="G272" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="H272" s="2" t="s">
+      <c r="H272" s="7" t="s">
         <v>1324</v>
       </c>
       <c r="I272" s="2">
@@ -13863,28 +13805,28 @@
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="E283" s="7" t="s">
         <v>1370</v>
       </c>
-      <c r="F283" s="2" t="s">
+      <c r="F283" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="G283" s="4">
+      <c r="G283" s="8">
         <v>43516</v>
       </c>
-      <c r="H283" s="2" t="s">
+      <c r="H283" s="7" t="s">
         <v>1372</v>
       </c>
       <c r="I283" s="2">
@@ -13928,28 +13870,28 @@
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E285" s="7" t="s">
         <v>1380</v>
       </c>
-      <c r="F285" s="2" t="s">
+      <c r="F285" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="G285" s="4">
+      <c r="G285" s="8">
         <v>43508</v>
       </c>
-      <c r="H285" s="2" t="s">
+      <c r="H285" s="7" t="s">
         <v>1381</v>
       </c>
       <c r="I285" s="2">
@@ -14021,28 +13963,28 @@
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="E288" s="2" t="s">
+      <c r="E288" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="F288" s="2" t="s">
+      <c r="F288" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="G288" s="2" t="s">
+      <c r="G288" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="H288" s="2" t="s">
+      <c r="H288" s="7" t="s">
         <v>1392</v>
       </c>
       <c r="I288" s="2">
@@ -14055,28 +13997,28 @@
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="E289" s="2" t="s">
+      <c r="E289" s="7" t="s">
         <v>1396</v>
       </c>
-      <c r="F289" s="2" t="s">
+      <c r="F289" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G289" s="2" t="s">
+      <c r="G289" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="H289" s="2" t="s">
+      <c r="H289" s="7" t="s">
         <v>1397</v>
       </c>
       <c r="I289" s="2">
@@ -14120,28 +14062,28 @@
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="7" t="s">
         <v>1402</v>
       </c>
-      <c r="E291" s="2" t="s">
+      <c r="E291" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="F291" s="2" t="s">
+      <c r="F291" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G291" s="2" t="s">
+      <c r="G291" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H291" s="2" t="s">
+      <c r="H291" s="7" t="s">
         <v>1404</v>
       </c>
       <c r="I291" s="2">
@@ -14176,28 +14118,28 @@
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="E293" s="2" t="s">
+      <c r="E293" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F293" s="2" t="s">
+      <c r="F293" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G293" s="2" t="s">
+      <c r="G293" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H293" s="2" t="s">
+      <c r="H293" s="7" t="s">
         <v>1410</v>
       </c>
       <c r="I293" s="2">
@@ -14210,28 +14152,28 @@
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="7" t="s">
         <v>1411</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="E294" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F294" s="2" t="s">
+      <c r="F294" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G294" s="2" t="s">
+      <c r="G294" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="H294" s="2" t="s">
+      <c r="H294" s="7" t="s">
         <v>1148</v>
       </c>
       <c r="I294" s="2">
@@ -14244,28 +14186,28 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="7" t="s">
         <v>1415</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="E295" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F295" s="2" t="s">
+      <c r="F295" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G295" s="2" t="s">
+      <c r="G295" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="H295" s="2" t="s">
+      <c r="H295" s="7" t="s">
         <v>1417</v>
       </c>
       <c r="I295" s="2">
@@ -14278,22 +14220,24 @@
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="C296" s="9"/>
+      <c r="D296" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="E296" s="2" t="s">
+      <c r="E296" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="F296" s="2" t="s">
+      <c r="F296" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="H296" s="2" t="s">
+      <c r="G296" s="9"/>
+      <c r="H296" s="9" t="s">
         <v>1422</v>
       </c>
       <c r="I296" s="2">
@@ -14306,19 +14250,22 @@
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="C297" s="9"/>
+      <c r="D297" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E297" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="H297" s="2" t="s">
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9" t="s">
         <v>1426</v>
       </c>
       <c r="I297" s="2">
@@ -14331,22 +14278,24 @@
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="C298" s="9"/>
+      <c r="D298" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="E298" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="G298" s="2" t="s">
+      <c r="F298" s="9"/>
+      <c r="G298" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="H298" s="2" t="s">
+      <c r="H298" s="9" t="s">
         <v>1422</v>
       </c>
       <c r="I298" s="2">
@@ -14359,28 +14308,28 @@
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="E299" s="2" t="s">
+      <c r="E299" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F299" s="2" t="s">
+      <c r="F299" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="G299" s="2" t="s">
+      <c r="G299" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="H299" s="2" t="s">
+      <c r="H299" s="7" t="s">
         <v>1435</v>
       </c>
       <c r="I299" s="2">
@@ -14424,28 +14373,28 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="7" t="s">
         <v>1442</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="E301" s="2" t="s">
+      <c r="E301" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="F301" s="2" t="s">
+      <c r="F301" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="G301" s="2" t="s">
+      <c r="G301" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H301" s="2" t="s">
+      <c r="H301" s="7" t="s">
         <v>1446</v>
       </c>
       <c r="I301" s="2">
@@ -14458,28 +14407,28 @@
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="7" t="s">
         <v>1449</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="E302" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F302" s="2" t="s">
+      <c r="F302" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="G302" s="2" t="s">
+      <c r="G302" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="H302" s="2" t="s">
+      <c r="H302" s="7" t="s">
         <v>1451</v>
       </c>
       <c r="I302" s="2">
@@ -14492,28 +14441,28 @@
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="E303" s="2" t="s">
+      <c r="E303" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F303" s="2" t="s">
+      <c r="F303" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="G303" s="2" t="s">
+      <c r="G303" s="7" t="s">
         <v>1454</v>
       </c>
-      <c r="H303" s="2" t="s">
+      <c r="H303" s="7" t="s">
         <v>1451</v>
       </c>
       <c r="I303" s="2">
@@ -14585,28 +14534,28 @@
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="7" t="s">
         <v>1461</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="E306" s="2" t="s">
+      <c r="E306" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F306" s="2" t="s">
+      <c r="F306" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G306" s="4">
+      <c r="G306" s="7">
         <v>43487</v>
       </c>
-      <c r="H306" s="2" t="s">
+      <c r="H306" s="7" t="s">
         <v>1463</v>
       </c>
       <c r="I306" s="2">
@@ -14678,28 +14627,28 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="E309" s="2" t="s">
+      <c r="E309" s="7" t="s">
         <v>1470</v>
       </c>
-      <c r="F309" s="2" t="s">
+      <c r="F309" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="G309" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="H309" s="2" t="s">
+      <c r="H309" s="7" t="s">
         <v>1472</v>
       </c>
       <c r="I309" s="2">
@@ -14740,28 +14689,28 @@
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D311" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E311" s="2" t="s">
+      <c r="E311" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F311" s="2" t="s">
+      <c r="F311" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G311" s="2" t="s">
+      <c r="G311" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="H311" s="2" t="s">
+      <c r="H311" s="7" t="s">
         <v>1481</v>
       </c>
       <c r="I311" s="2">
@@ -14774,28 +14723,28 @@
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="7" t="s">
         <v>1482</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D312" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E312" s="2" t="s">
+      <c r="E312" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F312" s="2" t="s">
+      <c r="F312" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G312" s="2" t="s">
+      <c r="G312" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="H312" s="2" t="s">
+      <c r="H312" s="7" t="s">
         <v>1483</v>
       </c>
       <c r="I312" s="2">
@@ -14808,28 +14757,28 @@
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="D313" s="2" t="s">
+      <c r="D313" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E313" s="2" t="s">
+      <c r="E313" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F313" s="2" t="s">
+      <c r="F313" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G313" s="2" t="s">
+      <c r="G313" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H313" s="2" t="s">
+      <c r="H313" s="7" t="s">
         <v>1483</v>
       </c>
       <c r="I313" s="2">
@@ -14842,28 +14791,28 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D314" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="E314" s="2" t="s">
+      <c r="E314" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="F314" s="2" t="s">
+      <c r="F314" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G314" s="2" t="s">
+      <c r="G314" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="H314" s="2" t="s">
+      <c r="H314" s="7" t="s">
         <v>1392</v>
       </c>
       <c r="I314" s="2">
@@ -15007,28 +14956,28 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D320" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="E320" s="2" t="s">
+      <c r="E320" s="7" t="s">
         <v>1500</v>
       </c>
-      <c r="F320" s="2" t="s">
+      <c r="F320" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G320" s="2" t="s">
+      <c r="G320" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H320" s="2" t="s">
+      <c r="H320" s="7" t="s">
         <v>1501</v>
       </c>
       <c r="I320" s="2">
@@ -15116,28 +15065,28 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="7" t="s">
         <v>1508</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D324" s="2" t="s">
+      <c r="D324" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="E324" s="2" t="s">
+      <c r="E324" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="F324" s="2" t="s">
+      <c r="F324" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G324" s="2" t="s">
+      <c r="G324" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H324" s="2" t="s">
+      <c r="H324" s="7" t="s">
         <v>1511</v>
       </c>
       <c r="I324" s="2">
@@ -15206,28 +15155,28 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E327" s="2" t="s">
+      <c r="E327" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="F327" s="2" t="s">
+      <c r="F327" s="7" t="s">
         <v>1518</v>
       </c>
-      <c r="G327" s="2" t="s">
+      <c r="G327" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H327" s="2" t="s">
+      <c r="H327" s="7" t="s">
         <v>1519</v>
       </c>
       <c r="I327" s="2">
@@ -15271,28 +15220,28 @@
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E329" s="2" t="s">
+      <c r="E329" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="F329" s="2" t="s">
+      <c r="F329" s="7" t="s">
         <v>1518</v>
       </c>
-      <c r="G329" s="2" t="s">
+      <c r="G329" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H329" s="2" t="s">
+      <c r="H329" s="7" t="s">
         <v>1519</v>
       </c>
       <c r="I329" s="2">
@@ -15336,28 +15285,28 @@
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D331" s="2" t="s">
+      <c r="D331" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E331" s="2" t="s">
+      <c r="E331" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="F331" s="2" t="s">
+      <c r="F331" s="7" t="s">
         <v>1518</v>
       </c>
-      <c r="G331" s="2" t="s">
+      <c r="G331" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H331" s="2" t="s">
+      <c r="H331" s="7" t="s">
         <v>1519</v>
       </c>
       <c r="I331" s="2">
@@ -15370,28 +15319,28 @@
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D332" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E332" s="2" t="s">
+      <c r="E332" s="7" t="s">
         <v>1523</v>
       </c>
-      <c r="F332" s="2" t="s">
+      <c r="F332" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G332" s="2" t="s">
+      <c r="G332" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H332" s="2" t="s">
+      <c r="H332" s="7" t="s">
         <v>1524</v>
       </c>
       <c r="I332" s="2">
@@ -15404,28 +15353,28 @@
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="7" t="s">
         <v>1525</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" s="7" t="s">
         <v>1527</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="E333" s="7" t="s">
         <v>1528</v>
       </c>
-      <c r="F333" s="2" t="s">
+      <c r="F333" s="7" t="s">
         <v>1528</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="G333" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H333" s="2" t="s">
+      <c r="H333" s="7" t="s">
         <v>1377</v>
       </c>
       <c r="I333" s="2">
@@ -15531,28 +15480,28 @@
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C337" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D337" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="E337" s="2" t="s">
+      <c r="E337" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="F337" s="2" t="s">
+      <c r="F337" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G337" s="2" t="s">
+      <c r="G337" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="H337" s="2" t="s">
+      <c r="H337" s="7" t="s">
         <v>716</v>
       </c>
       <c r="I337" s="2">
@@ -15748,28 +15697,28 @@
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D344" s="7" t="s">
         <v>1563</v>
       </c>
-      <c r="E344" s="2" t="s">
+      <c r="E344" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="F344" s="2" t="s">
+      <c r="F344" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="G344" s="2" t="s">
+      <c r="G344" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H344" s="2" t="s">
+      <c r="H344" s="7" t="s">
         <v>1565</v>
       </c>
       <c r="I344" s="2">
@@ -15953,28 +15902,28 @@
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" s="7" t="s">
         <v>1589</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D351" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="E351" s="2" t="s">
+      <c r="E351" s="7" t="s">
         <v>1591</v>
       </c>
-      <c r="F351" s="2" t="s">
+      <c r="F351" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="G351" s="2" t="s">
+      <c r="G351" s="7" t="s">
         <v>1593</v>
       </c>
-      <c r="H351" s="2" t="s">
+      <c r="H351" s="7" t="s">
         <v>1594</v>
       </c>
       <c r="I351" s="2">
@@ -16473,28 +16422,28 @@
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="7" t="s">
         <v>1639</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D370" s="2" t="s">
+      <c r="D370" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="E370" s="2" t="s">
+      <c r="E370" s="7" t="s">
         <v>1641</v>
       </c>
-      <c r="F370" s="2" t="s">
+      <c r="F370" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="G370" s="4">
+      <c r="G370" s="7">
         <v>43506</v>
       </c>
-      <c r="H370" s="2" t="s">
+      <c r="H370" s="7" t="s">
         <v>1643</v>
       </c>
       <c r="I370" s="2">
@@ -16566,28 +16515,28 @@
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D373" s="7" t="s">
         <v>1652</v>
       </c>
-      <c r="E373" s="2" t="s">
+      <c r="E373" s="7" t="s">
         <v>1653</v>
       </c>
-      <c r="F373" s="2" t="s">
+      <c r="F373" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="G373" s="2" t="s">
+      <c r="G373" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="H373" s="2" t="s">
+      <c r="H373" s="7" t="s">
         <v>1655</v>
       </c>
       <c r="I373" s="2">
@@ -16660,28 +16609,28 @@
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="7" t="s">
         <v>1661</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C377" s="7" t="s">
         <v>1662</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D377" s="7" t="s">
         <v>1663</v>
       </c>
-      <c r="E377" s="2" t="s">
+      <c r="E377" s="7" t="s">
         <v>1664</v>
       </c>
-      <c r="F377" s="2" t="s">
+      <c r="F377" s="7" t="s">
         <v>1665</v>
       </c>
-      <c r="G377" s="2" t="s">
+      <c r="G377" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H377" s="2" t="s">
+      <c r="H377" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I377" s="2">
@@ -16793,21 +16742,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I381">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>